--- a/Data/Proposta_Tables_GLMM_RS_Sports_Arnau.xlsx
+++ b/Data/Proposta_Tables_GLMM_RS_Sports_Arnau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\Desktop\TFG\COS DEL TREBALL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\Desktop\TFG\3. COS DEL TREBALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262EA3D0-5555-4CD1-9F92-E58EAAA9FF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E4919-F7E7-4E83-BCA8-E9D9CEB5F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{F7A8FE15-3190-4C11-83B9-8C3309310FC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{F7A8FE15-3190-4C11-83B9-8C3309310FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Articles" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Caracteristiques articles" sheetId="2" r:id="rId3"/>
     <sheet name="DEFINITIU" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DEFINITIU!$Y$1:$Y$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -124,7 +127,6 @@
     <author>tc={4159AB26-65DC-4532-AF23-B3B7A44D69C1}</author>
     <author>tc={E4C96E6F-BC35-4CB2-B080-346854CF1E84}</author>
     <author>tc={6604F10D-BDF9-443D-B3C2-6005FBDB2C20}</author>
-    <author>tc={AB0E8903-667E-48E8-B0E6-A634C03AF1F2}</author>
   </authors>
   <commentList>
     <comment ref="O4" authorId="0" shapeId="0" xr:uid="{9B03C2C1-B9C4-4F0B-897C-A8D61A31ACDE}">
@@ -160,12 +162,31 @@
     M'agrada lo d'incloure Taula 4 de GLMM Psicologia referent a "Confident Interval reported"i "p-value reported", parameter estimation, ?¿ https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8100208/pdf/fpsyg-12-666182.pdf</t>
       </text>
     </comment>
-    <comment ref="A75" authorId="4" shapeId="0" xr:uid="{AB0E8903-667E-48E8-B0E6-A634C03AF1F2}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E8185BEF-9004-4289-AF54-2CDA277188CA}</author>
+    <author>tc={463CCB2E-121D-4F4F-A6C1-4EF8A874ED63}</author>
+  </authors>
+  <commentList>
+    <comment ref="W21" authorId="0" shapeId="0" xr:uid="{E8185BEF-9004-4289-AF54-2CDA277188CA}">
       <text>
-        <t>[Comentario encadenado]
+        <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
-    No he aconseguit aquest article</t>
+    We use the package stats included in the software R to fit the GLMM </t>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="1" shapeId="0" xr:uid="{463CCB2E-121D-4F4F-A6C1-4EF8A874ED63}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Fasted blood samples were obtained according to standard diagnostic procedures. Fingertip capillary blood collection systems (KABE-Labortechnik GmbH, Nümbrecht_x0002_Elsenroth, Germany) were used to collect blood samples for biochemical and hematological analyses using lithium heparin (2 capillaries per 200 µL of blood; cat. No. 077201) and ethylenediaminetetraacetic acid (EDTA; 1 capillary per 100 µL of blood; cat. No. 077103), respectively, as anticoagulants [28,29]. Capillary blood was collected between 6.00 am and 6.30 am after one day of recovery (i.e., a day where no training took place) </t>
       </text>
     </comment>
   </commentList>
@@ -173,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="526">
   <si>
     <t>General characteristics of the selected articles</t>
   </si>
@@ -1801,6 +1822,132 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Kerr, Z. Y., Chandran, A., Brett, B. L., Walton, S. R., DeFreese, J. D., Mannix, R., ... &amp; Meehan III, W. P. (2022). The stability of self-reported professional football concussion history among former players: A longitudinal NFL-LONG study. Brain injury, 36(8), 968-976.</t>
+  </si>
+  <si>
+    <t>Brain injury</t>
+  </si>
+  <si>
+    <t>Examine the stability of former National Football League (NFL) players’ recall of professional football concussion</t>
+  </si>
+  <si>
+    <t>American football</t>
+  </si>
+  <si>
+    <t>National Football League (NFL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonese wrestling </t>
+  </si>
+  <si>
+    <t>Australian football</t>
+  </si>
+  <si>
+    <t>National Hockey League (NHL), National Basketball Association (NBA), Major League Baseball (MLB), National Football League (NFL)</t>
+  </si>
+  <si>
+    <t>International Journal of Sports Science and Coaching</t>
+  </si>
+  <si>
+    <t>Negative-Binomial</t>
+  </si>
+  <si>
+    <t>Poisson, Negative-Binomial</t>
+  </si>
+  <si>
+    <t>Pearson's dispersion parameter</t>
+  </si>
+  <si>
+    <t>lme4, hglm, INLA</t>
+  </si>
+  <si>
+    <t>Method of model selection:</t>
+  </si>
+  <si>
+    <t>Chi-square test</t>
+  </si>
+  <si>
+    <t>PQL, Laplace approximation</t>
+  </si>
+  <si>
+    <t>Outcome type</t>
+  </si>
+  <si>
+    <t>Number of injuries</t>
+  </si>
+  <si>
+    <t>Number of shots, passes, cards, tackles, …</t>
+  </si>
+  <si>
+    <t>Presence of injury (Yes/No)</t>
+  </si>
+  <si>
+    <t>Ranking of the team</t>
+  </si>
+  <si>
+    <t>Linear acceleration and rotational acceleration of a headimpact</t>
+  </si>
+  <si>
+    <t>Number of Pitch Smart guidelines (PSG) violations</t>
+  </si>
+  <si>
+    <t>Professional level reached</t>
+  </si>
+  <si>
+    <t>Opinion on influence of the pitch surface on the match result</t>
+  </si>
+  <si>
+    <t>Match result (Win/Lose)</t>
+  </si>
+  <si>
+    <t>Test passed (Yes/No)</t>
+  </si>
+  <si>
+    <t>Number of points, goals, cards, …</t>
+  </si>
+  <si>
+    <t>Number of points</t>
+  </si>
+  <si>
+    <t>Outcome of an offensive play</t>
+  </si>
+  <si>
+    <t>Fasted blood sample</t>
+  </si>
+  <si>
+    <t>Category of potential doping behaviour (PDB)</t>
+  </si>
+  <si>
+    <t>Number of penalties committed</t>
+  </si>
+  <si>
+    <t>Number of kicks and number of handballs</t>
+  </si>
+  <si>
+    <t>Outcome of an at-bat</t>
+  </si>
+  <si>
+    <t>Number of goals</t>
+  </si>
+  <si>
+    <t>Number of fouls committed</t>
+  </si>
+  <si>
+    <t>Foul against the away team (Yes/No)</t>
+  </si>
+  <si>
+    <t>Number of fish caught</t>
+  </si>
+  <si>
+    <t>Number of mentions</t>
+  </si>
+  <si>
+    <t>Opinion on number of brain contusion since last time that was asked</t>
+  </si>
+  <si>
+    <t>Number of players that had played at least one youth championship in each generation and country</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +2046,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1915,6 +2062,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,7 +2157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2036,7 +2195,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2056,7 +2222,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Arnau Sànchez Alaix" id="{99DD5D2C-5CD2-473D-BBD1-7FE12E43EE30}" userId="e911770baa8d2432" providerId="Windows Live"/>
+  <person displayName="Arnau Sànchez Alaix" id="{8B5BF0FC-103B-465E-872C-0AFA91EC34DC}" userId="e911770baa8d2432" providerId="Windows Live"/>
   <person displayName="Casals Toquero, Marti" id="{14FC2A5C-4B39-4EAF-B807-9BA022CFCB5F}" userId="S::marticasals@gencat.cat::8ee50979-0284-4581-8ba8-ccd1a560a1e7" providerId="AD"/>
 </personList>
 </file>
@@ -2434,8 +2600,16 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="A75" dT="2023-04-19T09:58:50.06" personId="{99DD5D2C-5CD2-473D-BBD1-7FE12E43EE30}" id="{AB0E8903-667E-48E8-B0E6-A634C03AF1F2}">
-    <text>No he aconseguit aquest article</text>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="W21" dT="2023-05-25T17:55:38.22" personId="{8B5BF0FC-103B-465E-872C-0AFA91EC34DC}" id="{E8185BEF-9004-4289-AF54-2CDA277188CA}">
+    <text xml:space="preserve">We use the package stats included in the software R to fit the GLMM </text>
+  </threadedComment>
+  <threadedComment ref="J25" dT="2023-06-12T11:22:29.82" personId="{8B5BF0FC-103B-465E-872C-0AFA91EC34DC}" id="{463CCB2E-121D-4F4F-A6C1-4EF8A874ED63}">
+    <text xml:space="preserve">Fasted blood samples were obtained according to standard diagnostic procedures. Fingertip capillary blood collection systems (KABE-Labortechnik GmbH, Nümbrecht_x0002_Elsenroth, Germany) were used to collect blood samples for biochemical and hematological analyses using lithium heparin (2 capillaries per 200 µL of blood; cat. No. 077201) and ethylenediaminetetraacetic acid (EDTA; 1 capillary per 100 µL of blood; cat. No. 077103), respectively, as anticoagulants [28,29]. Capillary blood was collected between 6.00 am and 6.30 am after one day of recovery (i.e., a day where no training took place) </text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2444,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D828ECAE-3B5D-4EBE-915B-1379D7557B6C}">
   <dimension ref="A3:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3472,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79EB913-2605-40D9-AB21-0366455A80F6}">
   <dimension ref="A3:C56"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3766,11 +3940,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E441F6-1E75-40CD-BA96-DD28220E9B00}">
-  <dimension ref="A2:AM75"/>
+  <dimension ref="A2:AM84"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC14" sqref="AC14"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4488,220 +4662,6 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" t="s">
-        <v>299</v>
-      </c>
-      <c r="F16">
-        <v>2020</v>
-      </c>
-      <c r="G16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>274</v>
-      </c>
-      <c r="K16" t="s">
-        <v>360</v>
-      </c>
-      <c r="L16" t="s">
-        <v>286</v>
-      </c>
-      <c r="M16" t="s">
-        <v>264</v>
-      </c>
-      <c r="O16" t="s">
-        <v>288</v>
-      </c>
-      <c r="P16" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>274</v>
-      </c>
-      <c r="R16" t="s">
-        <v>307</v>
-      </c>
-      <c r="S16" t="s">
-        <v>274</v>
-      </c>
-      <c r="T16" t="s">
-        <v>254</v>
-      </c>
-      <c r="V16" t="s">
-        <v>274</v>
-      </c>
-      <c r="W16" t="s">
-        <v>274</v>
-      </c>
-      <c r="X16" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17">
-        <v>2018</v>
-      </c>
-      <c r="G17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>274</v>
-      </c>
-      <c r="J17" t="s">
-        <v>274</v>
-      </c>
-      <c r="K17" t="s">
-        <v>361</v>
-      </c>
-      <c r="L17" t="s">
-        <v>286</v>
-      </c>
-      <c r="M17" t="s">
-        <v>263</v>
-      </c>
-      <c r="O17" t="s">
-        <v>298</v>
-      </c>
-      <c r="P17" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>272</v>
-      </c>
-      <c r="R17" t="s">
-        <v>279</v>
-      </c>
-      <c r="S17" t="s">
-        <v>274</v>
-      </c>
-      <c r="T17" t="s">
-        <v>280</v>
-      </c>
-      <c r="V17" t="s">
-        <v>274</v>
-      </c>
-      <c r="W17" t="s">
-        <v>274</v>
-      </c>
-      <c r="X17" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
@@ -6949,113 +6909,6 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>38</v>
-      </c>
-      <c r="B46" t="s">
-        <v>425</v>
-      </c>
-      <c r="D46" t="s">
-        <v>422</v>
-      </c>
-      <c r="E46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F46">
-        <v>2019</v>
-      </c>
-      <c r="G46" t="s">
-        <v>140</v>
-      </c>
-      <c r="H46" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46">
-        <v>291</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="K46" t="s">
-        <v>423</v>
-      </c>
-      <c r="L46" t="s">
-        <v>270</v>
-      </c>
-      <c r="M46" t="s">
-        <v>263</v>
-      </c>
-      <c r="O46" t="s">
-        <v>422</v>
-      </c>
-      <c r="P46" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>278</v>
-      </c>
-      <c r="R46" t="s">
-        <v>320</v>
-      </c>
-      <c r="S46" t="s">
-        <v>424</v>
-      </c>
-      <c r="T46" t="s">
-        <v>254</v>
-      </c>
-      <c r="V46" t="s">
-        <v>274</v>
-      </c>
-      <c r="W46" t="s">
-        <v>274</v>
-      </c>
-      <c r="X46" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>39</v>
@@ -8019,113 +7872,6 @@
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>49</v>
-      </c>
-      <c r="B57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" t="s">
-        <v>472</v>
-      </c>
-      <c r="E57" t="s">
-        <v>299</v>
-      </c>
-      <c r="F57">
-        <v>1994</v>
-      </c>
-      <c r="G57" t="s">
-        <v>244</v>
-      </c>
-      <c r="H57" t="s">
-        <v>252</v>
-      </c>
-      <c r="I57">
-        <v>3224</v>
-      </c>
-      <c r="J57" t="s">
-        <v>274</v>
-      </c>
-      <c r="K57" t="s">
-        <v>473</v>
-      </c>
-      <c r="L57" t="s">
-        <v>270</v>
-      </c>
-      <c r="M57" t="s">
-        <v>263</v>
-      </c>
-      <c r="O57" t="s">
-        <v>472</v>
-      </c>
-      <c r="P57" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>278</v>
-      </c>
-      <c r="R57" t="s">
-        <v>307</v>
-      </c>
-      <c r="S57" t="s">
-        <v>474</v>
-      </c>
-      <c r="T57" t="s">
-        <v>280</v>
-      </c>
-      <c r="V57" t="s">
-        <v>475</v>
-      </c>
-      <c r="W57" t="s">
-        <v>274</v>
-      </c>
-      <c r="X57" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>51</v>
@@ -8233,174 +7979,1119 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>62</v>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>484</v>
+      </c>
+      <c r="E60" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60">
+        <v>2022</v>
+      </c>
+      <c r="G60" t="s">
+        <v>485</v>
+      </c>
+      <c r="H60" t="s">
+        <v>308</v>
+      </c>
+      <c r="I60">
+        <v>209</v>
+      </c>
+      <c r="J60" t="s">
+        <v>274</v>
+      </c>
+      <c r="K60" t="s">
+        <v>486</v>
+      </c>
+      <c r="L60" t="s">
+        <v>286</v>
+      </c>
+      <c r="M60" t="s">
+        <v>264</v>
+      </c>
+      <c r="O60" t="s">
+        <v>484</v>
+      </c>
+      <c r="P60" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>272</v>
+      </c>
+      <c r="R60" t="s">
+        <v>279</v>
+      </c>
+      <c r="S60" t="s">
+        <v>488</v>
+      </c>
+      <c r="T60" t="s">
+        <v>254</v>
+      </c>
+      <c r="V60" t="s">
+        <v>274</v>
+      </c>
+      <c r="W60" t="s">
+        <v>274</v>
+      </c>
+      <c r="X60" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A65" s="17">
         <v>12</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>2019</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="17">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A66" s="17">
         <v>14</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>71</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>2014</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A67" s="17">
         <v>16</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>73</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>2023</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>76</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>2016</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A69" s="17">
         <v>21</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>78</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>2017</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
         <v>25</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>82</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <v>2013</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A71" s="17">
         <v>30</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>87</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>2021</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="20">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A72" s="20">
         <v>40</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>97</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>2018</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G72" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="20">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A73" s="20">
         <v>50</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>107</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>2020</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
-        <v>59</v>
-      </c>
-      <c r="K75" s="15"/>
+    <row r="75" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" s="9">
+        <v>2020</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75" s="9">
+        <v>18</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="T75" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="V75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="W75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="X75" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y75" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z75" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF75" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG75" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D76" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="P76" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="R76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="S76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="T76" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="V76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="W76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="X76" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y76" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z76" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG76" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21">
+        <v>49</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F77" s="21">
+        <v>1994</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="I77" s="21">
+        <v>3224</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="M77" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="P77" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q77" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="R77" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="S77" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="T77" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="V77" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="W77" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="X77" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y77" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z77" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA77" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB77" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC77" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD77" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE77" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG77" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH77" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI77" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ77" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK77" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL77" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM77" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>38</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="9">
+        <v>2019</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="9">
+        <v>291</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="P78" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q78" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="R78" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S78" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="T78" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="V78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="W78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="X78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y78" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC78" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD78" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE78" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL78" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM78" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="17">
+        <v>23</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E81" s="17">
+        <v>2020</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H81" s="17">
+        <v>124</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="N81" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="O81" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="P81" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q81" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="R81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="S81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="T81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="U81" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="V81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="W81" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="X81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y81" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z81" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA81" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF81" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG81" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH81" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="17">
+        <v>28</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E82" s="17">
+        <v>2013</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H82" s="17">
+        <v>9</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="M82" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="O82" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q82" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="R82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="S82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="T82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="U82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="V82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="W82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="X82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y82" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z82" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA82" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG82" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH82" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="17">
+        <v>2020</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G83" s="17">
+        <v>124</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="K83" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="M83" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="N83" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="O83" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="P83" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="R83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="S83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="T83" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="U83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="V83" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="W83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="X83" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y83" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z83" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE83" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF83" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="AG83" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D84" s="17">
+        <v>2013</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G84" s="17">
+        <v>9</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="P84" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="R84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="S84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="T84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="U84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="V84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="W84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="X84" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y84" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z84" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF84" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG84" s="17" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J23 J46" twoDigitTextYear="1"/>
+    <ignoredError sqref="J23" twoDigitTextYear="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295041FB-7A4C-42BA-AF3C-EAD97E4C5808}">
-  <dimension ref="A1:AG41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295041FB-7A4C-42BA-AF3C-EAD97E4C5808}">
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="134.77734375" customWidth="1"/>
+    <col min="1" max="1" width="110.5546875" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="18" max="18" width="20.77734375" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
+    <col min="20" max="20" width="36.33203125" customWidth="1"/>
+    <col min="21" max="21" width="19.77734375" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" customWidth="1"/>
+    <col min="23" max="23" width="29.5546875" customWidth="1"/>
+    <col min="24" max="24" width="26.44140625" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1"/>
+    <col min="26" max="26" width="14.21875" customWidth="1"/>
+    <col min="27" max="27" width="25.88671875" customWidth="1"/>
+    <col min="28" max="28" width="30" customWidth="1"/>
+    <col min="29" max="29" width="26.77734375" customWidth="1"/>
+    <col min="30" max="30" width="29.21875" customWidth="1"/>
+    <col min="31" max="31" width="22.33203125" customWidth="1"/>
+    <col min="32" max="32" width="29.109375" customWidth="1"/>
+    <col min="33" max="33" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>483</v>
       </c>
@@ -8428,80 +9119,83 @@
       <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="AG1" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="AH1" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -8530,79 +9224,82 @@
         <v>358</v>
       </c>
       <c r="J2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K2" t="s">
         <v>286</v>
       </c>
-      <c r="K2" t="s">
-        <v>264</v>
-      </c>
       <c r="L2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="M2" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="N2" t="s">
+        <v>274</v>
+      </c>
+      <c r="O2" t="s">
         <v>255</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>256</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" s="21" t="s">
-        <v>274</v>
-      </c>
       <c r="R2" t="s">
         <v>274</v>
       </c>
       <c r="S2" t="s">
+        <v>274</v>
+      </c>
+      <c r="T2" t="s">
         <v>263</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>257</v>
       </c>
-      <c r="U2" t="s">
-        <v>258</v>
-      </c>
       <c r="V2" t="s">
-        <v>482</v>
+        <v>330</v>
       </c>
       <c r="W2" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="X2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z2" t="s">
         <v>263</v>
       </c>
-      <c r="Z2" t="s">
-        <v>264</v>
-      </c>
       <c r="AA2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB2" t="s">
         <v>262</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>263</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>261</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>265</v>
       </c>
-      <c r="AE2" t="s">
-        <v>274</v>
-      </c>
       <c r="AF2" t="s">
         <v>274</v>
       </c>
       <c r="AG2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -8619,7 +9316,7 @@
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="G3">
         <v>1291</v>
@@ -8631,29 +9328,29 @@
         <v>480</v>
       </c>
       <c r="J3" t="s">
+        <v>502</v>
+      </c>
+      <c r="K3" t="s">
         <v>286</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>263</v>
       </c>
-      <c r="L3" t="s">
-        <v>310</v>
-      </c>
       <c r="M3" t="s">
+        <v>300</v>
+      </c>
+      <c r="N3" t="s">
         <v>272</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>279</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>481</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>280</v>
       </c>
-      <c r="Q3" t="s">
-        <v>274</v>
-      </c>
       <c r="R3" t="s">
         <v>274</v>
       </c>
@@ -8661,20 +9358,20 @@
         <v>274</v>
       </c>
       <c r="T3" t="s">
+        <v>274</v>
+      </c>
+      <c r="U3" t="s">
         <v>312</v>
       </c>
-      <c r="U3" t="s">
-        <v>274</v>
-      </c>
       <c r="V3" t="s">
+        <v>274</v>
+      </c>
+      <c r="W3" t="s">
+        <v>274</v>
+      </c>
+      <c r="X3" t="s">
         <v>313</v>
       </c>
-      <c r="W3" t="s">
-        <v>274</v>
-      </c>
-      <c r="X3" t="s">
-        <v>264</v>
-      </c>
       <c r="Y3" t="s">
         <v>264</v>
       </c>
@@ -8682,11 +9379,11 @@
         <v>264</v>
       </c>
       <c r="AA3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB3" t="s">
         <v>262</v>
       </c>
-      <c r="AB3" t="s">
-        <v>274</v>
-      </c>
       <c r="AC3" t="s">
         <v>274</v>
       </c>
@@ -8702,8 +9399,11 @@
       <c r="AG3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -8732,29 +9432,29 @@
         <v>269</v>
       </c>
       <c r="J4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K4" t="s">
         <v>270</v>
       </c>
-      <c r="K4" t="s">
-        <v>264</v>
-      </c>
       <c r="L4" t="s">
+        <v>264</v>
+      </c>
+      <c r="M4" t="s">
         <v>271</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>272</v>
       </c>
-      <c r="N4" t="s">
-        <v>273</v>
-      </c>
       <c r="O4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q4" t="s">
         <v>254</v>
       </c>
-      <c r="Q4" t="s">
-        <v>274</v>
-      </c>
       <c r="R4" t="s">
         <v>274</v>
       </c>
@@ -8774,7 +9474,7 @@
         <v>274</v>
       </c>
       <c r="X4" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y4" t="s">
         <v>264</v>
@@ -8783,10 +9483,10 @@
         <v>264</v>
       </c>
       <c r="AA4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AB4" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="AC4" t="s">
         <v>274</v>
@@ -8803,8 +9503,11 @@
       <c r="AG4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -8833,31 +9536,31 @@
         <v>276</v>
       </c>
       <c r="J5" t="s">
+        <v>504</v>
+      </c>
+      <c r="K5" t="s">
         <v>286</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>263</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>277</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>278</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>279</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>395</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>280</v>
       </c>
-      <c r="Q5" t="s">
-        <v>274</v>
-      </c>
       <c r="R5" t="s">
-        <v>274</v>
+        <v>498</v>
       </c>
       <c r="S5" t="s">
         <v>274</v>
@@ -8875,7 +9578,7 @@
         <v>274</v>
       </c>
       <c r="X5" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y5" t="s">
         <v>264</v>
@@ -8884,10 +9587,10 @@
         <v>264</v>
       </c>
       <c r="AA5" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AB5" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="AC5" t="s">
         <v>274</v>
@@ -8904,261 +9607,270 @@
       <c r="AG5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D6">
-        <v>1994</v>
+        <v>2016</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="G6">
-        <v>3224</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>274</v>
       </c>
       <c r="I6" t="s">
-        <v>473</v>
+        <v>359</v>
       </c>
       <c r="J6" t="s">
+        <v>504</v>
+      </c>
+      <c r="K6" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M6" t="s">
+        <v>490</v>
+      </c>
+      <c r="N6" t="s">
+        <v>274</v>
+      </c>
+      <c r="O6" t="s">
+        <v>279</v>
+      </c>
+      <c r="P6" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>280</v>
+      </c>
+      <c r="R6" t="s">
+        <v>328</v>
+      </c>
+      <c r="S6" t="s">
+        <v>274</v>
+      </c>
+      <c r="T6" t="s">
+        <v>274</v>
+      </c>
+      <c r="U6" t="s">
+        <v>257</v>
+      </c>
+      <c r="V6" t="s">
+        <v>274</v>
+      </c>
+      <c r="W6" t="s">
+        <v>304</v>
+      </c>
+      <c r="X6" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1446</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L7" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="M6" t="s">
-        <v>278</v>
-      </c>
-      <c r="N6" t="s">
-        <v>307</v>
-      </c>
-      <c r="O6" t="s">
-        <v>474</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="M7" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q7" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="Q6" t="s">
-        <v>475</v>
-      </c>
-      <c r="R6" t="s">
-        <v>274</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="R7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y7" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="T6" t="s">
-        <v>477</v>
-      </c>
-      <c r="U6" t="s">
-        <v>476</v>
-      </c>
-      <c r="V6" t="s">
-        <v>274</v>
-      </c>
-      <c r="W6" t="s">
-        <v>274</v>
-      </c>
-      <c r="X6" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7">
-        <v>2016</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I7" t="s">
-        <v>359</v>
-      </c>
-      <c r="J7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M7" t="s">
-        <v>274</v>
-      </c>
-      <c r="N7" t="s">
-        <v>279</v>
-      </c>
-      <c r="O7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>287</v>
-      </c>
-      <c r="R7" t="s">
-        <v>274</v>
-      </c>
-      <c r="S7" t="s">
-        <v>274</v>
-      </c>
-      <c r="T7" t="s">
-        <v>257</v>
-      </c>
-      <c r="U7" t="s">
-        <v>274</v>
-      </c>
-      <c r="V7" t="s">
-        <v>274</v>
-      </c>
-      <c r="W7" t="s">
-        <v>274</v>
-      </c>
-      <c r="X7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Z7" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH7" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>466</v>
       </c>
       <c r="D8">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="G8">
-        <v>1446</v>
+        <v>1129</v>
       </c>
       <c r="H8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>296</v>
+        <v>302</v>
+      </c>
+      <c r="I8" t="s">
+        <v>357</v>
       </c>
       <c r="J8" t="s">
-        <v>286</v>
+        <v>508</v>
       </c>
       <c r="K8" t="s">
+        <v>274</v>
+      </c>
+      <c r="L8" t="s">
         <v>263</v>
       </c>
-      <c r="L8" t="s">
-        <v>277</v>
-      </c>
       <c r="M8" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="N8" t="s">
+        <v>278</v>
+      </c>
+      <c r="O8" t="s">
         <v>279</v>
       </c>
-      <c r="O8" t="s">
-        <v>293</v>
-      </c>
       <c r="P8" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q8" t="s">
         <v>280</v>
       </c>
-      <c r="Q8" t="s">
-        <v>274</v>
-      </c>
       <c r="R8" t="s">
         <v>274</v>
       </c>
@@ -9166,32 +9878,32 @@
         <v>274</v>
       </c>
       <c r="T8" t="s">
+        <v>274</v>
+      </c>
+      <c r="U8" t="s">
         <v>257</v>
       </c>
-      <c r="U8" t="s">
-        <v>274</v>
-      </c>
       <c r="V8" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="W8" t="s">
         <v>274</v>
       </c>
       <c r="X8" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="Y8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB8" t="s">
         <v>297</v>
       </c>
-      <c r="AB8" t="s">
-        <v>274</v>
-      </c>
       <c r="AC8" t="s">
         <v>274</v>
       </c>
@@ -9205,384 +9917,396 @@
         <v>274</v>
       </c>
       <c r="AG8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
         <v>299</v>
       </c>
       <c r="D9">
+        <v>2016</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
+        <v>311</v>
+      </c>
+      <c r="I9" t="s">
+        <v>309</v>
+      </c>
+      <c r="J9" t="s">
+        <v>503</v>
+      </c>
+      <c r="K9" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" t="s">
+        <v>263</v>
+      </c>
+      <c r="M9" t="s">
+        <v>300</v>
+      </c>
+      <c r="N9" t="s">
+        <v>274</v>
+      </c>
+      <c r="O9" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>254</v>
+      </c>
+      <c r="R9" t="s">
+        <v>274</v>
+      </c>
+      <c r="S9" t="s">
+        <v>274</v>
+      </c>
+      <c r="T9" t="s">
+        <v>274</v>
+      </c>
+      <c r="U9" t="s">
+        <v>312</v>
+      </c>
+      <c r="V9" t="s">
+        <v>274</v>
+      </c>
+      <c r="W9" t="s">
+        <v>274</v>
+      </c>
+      <c r="X9" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10">
         <v>2020</v>
       </c>
-      <c r="E9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>274</v>
-      </c>
-      <c r="I9" t="s">
-        <v>360</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="E10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10">
+        <v>237</v>
+      </c>
+      <c r="H10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" t="s">
+        <v>505</v>
+      </c>
+      <c r="K10" t="s">
         <v>286</v>
       </c>
-      <c r="K9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" t="s">
+        <v>308</v>
+      </c>
+      <c r="N10" t="s">
+        <v>278</v>
+      </c>
+      <c r="O10" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>254</v>
+      </c>
+      <c r="R10" t="s">
+        <v>274</v>
+      </c>
+      <c r="S10" t="s">
+        <v>274</v>
+      </c>
+      <c r="T10" t="s">
+        <v>274</v>
+      </c>
+      <c r="U10" t="s">
+        <v>274</v>
+      </c>
+      <c r="V10" t="s">
+        <v>274</v>
+      </c>
+      <c r="W10" t="s">
+        <v>274</v>
+      </c>
+      <c r="X10" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11">
+        <v>1046</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" t="s">
+        <v>356</v>
+      </c>
+      <c r="J11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K11" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" t="s">
+        <v>264</v>
+      </c>
+      <c r="M11" t="s">
         <v>289</v>
       </c>
-      <c r="M9" t="s">
-        <v>274</v>
-      </c>
-      <c r="N9" t="s">
-        <v>307</v>
-      </c>
-      <c r="O9" t="s">
-        <v>274</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="N11" t="s">
+        <v>274</v>
+      </c>
+      <c r="O11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" t="s">
         <v>254</v>
       </c>
-      <c r="Q9" t="s">
-        <v>274</v>
-      </c>
-      <c r="R9" t="s">
-        <v>274</v>
-      </c>
-      <c r="S9" t="s">
-        <v>274</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="R11" t="s">
+        <v>274</v>
+      </c>
+      <c r="S11" t="s">
+        <v>274</v>
+      </c>
+      <c r="T11" t="s">
+        <v>274</v>
+      </c>
+      <c r="U11" t="s">
         <v>257</v>
       </c>
-      <c r="U9" t="s">
-        <v>274</v>
-      </c>
-      <c r="V9" t="s">
-        <v>274</v>
-      </c>
-      <c r="W9" t="s">
-        <v>274</v>
-      </c>
-      <c r="X9" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="V11" t="s">
+        <v>274</v>
+      </c>
+      <c r="W11" t="s">
+        <v>274</v>
+      </c>
+      <c r="X11" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" t="s">
         <v>466</v>
-      </c>
-      <c r="D10">
-        <v>2018</v>
-      </c>
-      <c r="E10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I10" t="s">
-        <v>361</v>
-      </c>
-      <c r="J10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K10" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" t="s">
-        <v>300</v>
-      </c>
-      <c r="M10" t="s">
-        <v>272</v>
-      </c>
-      <c r="N10" t="s">
-        <v>279</v>
-      </c>
-      <c r="O10" t="s">
-        <v>274</v>
-      </c>
-      <c r="P10" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>274</v>
-      </c>
-      <c r="R10" t="s">
-        <v>274</v>
-      </c>
-      <c r="S10" t="s">
-        <v>274</v>
-      </c>
-      <c r="T10" t="s">
-        <v>257</v>
-      </c>
-      <c r="U10" t="s">
-        <v>274</v>
-      </c>
-      <c r="V10" t="s">
-        <v>274</v>
-      </c>
-      <c r="W10" t="s">
-        <v>274</v>
-      </c>
-      <c r="X10" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D11">
-        <v>2017</v>
-      </c>
-      <c r="E11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11">
-        <v>1129</v>
-      </c>
-      <c r="H11" t="s">
-        <v>302</v>
-      </c>
-      <c r="I11" t="s">
-        <v>357</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="K11" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" t="s">
-        <v>300</v>
-      </c>
-      <c r="M11" t="s">
-        <v>278</v>
-      </c>
-      <c r="N11" t="s">
-        <v>279</v>
-      </c>
-      <c r="O11" t="s">
-        <v>274</v>
-      </c>
-      <c r="P11" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>274</v>
-      </c>
-      <c r="R11" t="s">
-        <v>274</v>
-      </c>
-      <c r="S11" t="s">
-        <v>274</v>
-      </c>
-      <c r="T11" t="s">
-        <v>257</v>
-      </c>
-      <c r="U11" t="s">
-        <v>274</v>
-      </c>
-      <c r="V11" t="s">
-        <v>304</v>
-      </c>
-      <c r="W11" t="s">
-        <v>303</v>
-      </c>
-      <c r="X11" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" t="s">
-        <v>299</v>
       </c>
       <c r="D12">
         <v>2016</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>324</v>
       </c>
       <c r="F12" t="s">
         <v>308</v>
       </c>
       <c r="G12">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="I12" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="J12" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" t="s">
         <v>286</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>263</v>
       </c>
-      <c r="L12" t="s">
-        <v>310</v>
-      </c>
       <c r="M12" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="N12" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="O12" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P12" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="Q12" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="R12" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S12" t="s">
         <v>274</v>
       </c>
       <c r="T12" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="U12" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="V12" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="W12" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="X12" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y12" t="s">
         <v>264</v>
@@ -9591,99 +10315,102 @@
         <v>264</v>
       </c>
       <c r="AA12" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AB12" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="AC12" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="AD12" t="s">
-        <v>274</v>
+        <v>495</v>
       </c>
       <c r="AE12" t="s">
         <v>274</v>
       </c>
       <c r="AF12" t="s">
-        <v>274</v>
+        <v>438</v>
       </c>
       <c r="AG12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
         <v>299</v>
       </c>
       <c r="D13">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="G13">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
         <v>274</v>
       </c>
       <c r="I13" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="J13" t="s">
+        <v>501</v>
+      </c>
+      <c r="K13" t="s">
         <v>286</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>264</v>
+      </c>
+      <c r="M13" t="s">
+        <v>277</v>
+      </c>
+      <c r="N13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O13" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>254</v>
+      </c>
+      <c r="R13" t="s">
+        <v>328</v>
+      </c>
+      <c r="S13" t="s">
+        <v>274</v>
+      </c>
+      <c r="T13" t="s">
         <v>263</v>
       </c>
-      <c r="L13" t="s">
-        <v>316</v>
-      </c>
-      <c r="M13" t="s">
-        <v>278</v>
-      </c>
-      <c r="N13" t="s">
-        <v>307</v>
-      </c>
-      <c r="O13" t="s">
-        <v>274</v>
-      </c>
-      <c r="P13" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>274</v>
-      </c>
-      <c r="R13" t="s">
-        <v>274</v>
-      </c>
-      <c r="S13" t="s">
-        <v>274</v>
-      </c>
-      <c r="T13" t="s">
-        <v>274</v>
-      </c>
       <c r="U13" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="V13" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="W13" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="X13" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y13" t="s">
         <v>264</v>
@@ -9692,99 +10419,102 @@
         <v>264</v>
       </c>
       <c r="AA13" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="AB13" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AC13" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="AD13" t="s">
-        <v>274</v>
+        <v>495</v>
       </c>
       <c r="AE13" t="s">
         <v>274</v>
       </c>
       <c r="AF13" t="s">
-        <v>274</v>
+        <v>438</v>
       </c>
       <c r="AG13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="D14">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="G14">
-        <v>1046</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>322</v>
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>340</v>
       </c>
       <c r="I14" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="J14" t="s">
-        <v>270</v>
+        <v>510</v>
       </c>
       <c r="K14" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="L14" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="M14" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="N14" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="O14" t="s">
         <v>274</v>
       </c>
       <c r="P14" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="Q14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="R14" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="S14" t="s">
         <v>274</v>
       </c>
       <c r="T14" t="s">
+        <v>263</v>
+      </c>
+      <c r="U14" t="s">
         <v>257</v>
       </c>
-      <c r="U14" t="s">
-        <v>274</v>
-      </c>
       <c r="V14" t="s">
         <v>274</v>
       </c>
       <c r="W14" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="X14" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y14" t="s">
         <v>264</v>
@@ -9793,10 +10523,10 @@
         <v>264</v>
       </c>
       <c r="AA14" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="AB14" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="AC14" t="s">
         <v>274</v>
@@ -9813,778 +10543,802 @@
       <c r="AG14" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C15" t="s">
         <v>466</v>
       </c>
       <c r="D15">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
-      </c>
-      <c r="G15">
-        <v>47</v>
+        <v>208</v>
+      </c>
+      <c r="G15" t="s">
+        <v>274</v>
       </c>
       <c r="H15" t="s">
         <v>274</v>
       </c>
       <c r="I15" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="J15" t="s">
+        <v>511</v>
+      </c>
+      <c r="K15" t="s">
         <v>286</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>263</v>
       </c>
-      <c r="L15" t="s">
-        <v>325</v>
-      </c>
       <c r="M15" t="s">
+        <v>300</v>
+      </c>
+      <c r="N15" t="s">
         <v>272</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>279</v>
       </c>
-      <c r="O15" t="s">
-        <v>274</v>
-      </c>
       <c r="P15" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q15" t="s">
         <v>280</v>
       </c>
-      <c r="Q15" t="s">
-        <v>328</v>
-      </c>
       <c r="R15" t="s">
         <v>274</v>
       </c>
       <c r="S15" t="s">
+        <v>274</v>
+      </c>
+      <c r="T15" t="s">
         <v>263</v>
       </c>
-      <c r="T15" t="s">
-        <v>257</v>
-      </c>
       <c r="U15" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="V15" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="W15" t="s">
         <v>274</v>
       </c>
       <c r="X15" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z15" t="s">
         <v>264</v>
       </c>
       <c r="AA15" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="AB15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC15" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="AD15" t="s">
         <v>274</v>
       </c>
       <c r="AE15" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="AF15" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AG15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="D16">
         <v>2018</v>
       </c>
       <c r="E16" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="G16">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="I16" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="J16" t="s">
+        <v>503</v>
+      </c>
+      <c r="K16" t="s">
         <v>286</v>
       </c>
-      <c r="K16" t="s">
-        <v>264</v>
-      </c>
       <c r="L16" t="s">
+        <v>264</v>
+      </c>
+      <c r="M16" t="s">
+        <v>308</v>
+      </c>
+      <c r="N16" t="s">
+        <v>278</v>
+      </c>
+      <c r="O16" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R16" t="s">
+        <v>274</v>
+      </c>
+      <c r="S16" t="s">
+        <v>274</v>
+      </c>
+      <c r="T16" t="s">
+        <v>274</v>
+      </c>
+      <c r="U16" t="s">
+        <v>312</v>
+      </c>
+      <c r="V16" t="s">
+        <v>274</v>
+      </c>
+      <c r="W16" t="s">
+        <v>274</v>
+      </c>
+      <c r="X16" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17">
+        <v>2021</v>
+      </c>
+      <c r="E17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I17" t="s">
+        <v>354</v>
+      </c>
+      <c r="J17" t="s">
+        <v>512</v>
+      </c>
+      <c r="K17" t="s">
+        <v>286</v>
+      </c>
+      <c r="L17" t="s">
+        <v>263</v>
+      </c>
+      <c r="M17" t="s">
+        <v>308</v>
+      </c>
+      <c r="N17" t="s">
+        <v>272</v>
+      </c>
+      <c r="O17" t="s">
+        <v>279</v>
+      </c>
+      <c r="P17" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>280</v>
+      </c>
+      <c r="R17" t="s">
+        <v>274</v>
+      </c>
+      <c r="S17" t="s">
+        <v>274</v>
+      </c>
+      <c r="T17" t="s">
+        <v>274</v>
+      </c>
+      <c r="U17" t="s">
+        <v>274</v>
+      </c>
+      <c r="V17" t="s">
+        <v>274</v>
+      </c>
+      <c r="W17" t="s">
+        <v>274</v>
+      </c>
+      <c r="X17" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D18">
+        <v>2015</v>
+      </c>
+      <c r="E18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18">
+        <v>591</v>
+      </c>
+      <c r="H18" t="s">
+        <v>366</v>
+      </c>
+      <c r="I18" t="s">
+        <v>365</v>
+      </c>
+      <c r="J18" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" t="s">
+        <v>270</v>
+      </c>
+      <c r="L18" t="s">
+        <v>263</v>
+      </c>
+      <c r="M18" t="s">
+        <v>308</v>
+      </c>
+      <c r="N18" t="s">
+        <v>278</v>
+      </c>
+      <c r="O18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>254</v>
+      </c>
+      <c r="R18" t="s">
+        <v>274</v>
+      </c>
+      <c r="S18" t="s">
+        <v>274</v>
+      </c>
+      <c r="T18" t="s">
+        <v>274</v>
+      </c>
+      <c r="U18" t="s">
+        <v>367</v>
+      </c>
+      <c r="V18" t="s">
+        <v>274</v>
+      </c>
+      <c r="W18" t="s">
+        <v>274</v>
+      </c>
+      <c r="X18" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="D19" s="24">
+        <v>2021</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="24">
+        <v>641</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="M16" t="s">
-        <v>272</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="N19" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="O19" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="O16" t="s">
-        <v>335</v>
-      </c>
-      <c r="P16" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>328</v>
-      </c>
-      <c r="R16" t="s">
-        <v>274</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="P19" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="T19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="U19" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="W19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="X19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y19" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="T16" t="s">
-        <v>257</v>
-      </c>
-      <c r="U16" t="s">
-        <v>330</v>
-      </c>
-      <c r="V16" t="s">
-        <v>331</v>
-      </c>
-      <c r="W16" t="s">
-        <v>274</v>
-      </c>
-      <c r="X16" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="Z19" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA19" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB19" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="AB16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" t="s">
-        <v>339</v>
-      </c>
-      <c r="D17">
-        <v>2017</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="AC19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG19" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH19" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20">
+        <v>2019</v>
+      </c>
+      <c r="E20" t="s">
         <v>250</v>
-      </c>
-      <c r="F17" t="s">
-        <v>338</v>
-      </c>
-      <c r="G17">
-        <v>102</v>
-      </c>
-      <c r="H17" t="s">
-        <v>340</v>
-      </c>
-      <c r="I17" t="s">
-        <v>342</v>
-      </c>
-      <c r="J17" t="s">
-        <v>286</v>
-      </c>
-      <c r="K17" t="s">
-        <v>264</v>
-      </c>
-      <c r="L17" t="s">
-        <v>375</v>
-      </c>
-      <c r="M17" t="s">
-        <v>274</v>
-      </c>
-      <c r="N17" t="s">
-        <v>274</v>
-      </c>
-      <c r="O17" t="s">
-        <v>274</v>
-      </c>
-      <c r="P17" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>328</v>
-      </c>
-      <c r="R17" t="s">
-        <v>274</v>
-      </c>
-      <c r="S17" t="s">
-        <v>263</v>
-      </c>
-      <c r="T17" t="s">
-        <v>257</v>
-      </c>
-      <c r="U17" t="s">
-        <v>274</v>
-      </c>
-      <c r="V17" t="s">
-        <v>331</v>
-      </c>
-      <c r="W17" t="s">
-        <v>274</v>
-      </c>
-      <c r="X17" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C18" t="s">
-        <v>466</v>
-      </c>
-      <c r="D18">
-        <v>2021</v>
-      </c>
-      <c r="E18" t="s">
-        <v>344</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>274</v>
-      </c>
-      <c r="H18" t="s">
-        <v>274</v>
-      </c>
-      <c r="I18" t="s">
-        <v>345</v>
-      </c>
-      <c r="J18" t="s">
-        <v>286</v>
-      </c>
-      <c r="K18" t="s">
-        <v>263</v>
-      </c>
-      <c r="L18" t="s">
-        <v>310</v>
-      </c>
-      <c r="M18" t="s">
-        <v>272</v>
-      </c>
-      <c r="N18" t="s">
-        <v>279</v>
-      </c>
-      <c r="O18" t="s">
-        <v>274</v>
-      </c>
-      <c r="P18" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>274</v>
-      </c>
-      <c r="R18" t="s">
-        <v>274</v>
-      </c>
-      <c r="S18" t="s">
-        <v>263</v>
-      </c>
-      <c r="T18" t="s">
-        <v>274</v>
-      </c>
-      <c r="U18" t="s">
-        <v>274</v>
-      </c>
-      <c r="V18" t="s">
-        <v>274</v>
-      </c>
-      <c r="W18" t="s">
-        <v>274</v>
-      </c>
-      <c r="X18" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>350</v>
-      </c>
-      <c r="B19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19">
-        <v>2018</v>
-      </c>
-      <c r="E19" t="s">
-        <v>348</v>
-      </c>
-      <c r="F19" t="s">
-        <v>308</v>
-      </c>
-      <c r="G19">
-        <v>54</v>
-      </c>
-      <c r="H19" t="s">
-        <v>347</v>
-      </c>
-      <c r="I19" t="s">
-        <v>362</v>
-      </c>
-      <c r="J19" t="s">
-        <v>286</v>
-      </c>
-      <c r="K19" t="s">
-        <v>264</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="M19" t="s">
-        <v>278</v>
-      </c>
-      <c r="N19" t="s">
-        <v>255</v>
-      </c>
-      <c r="O19" t="s">
-        <v>274</v>
-      </c>
-      <c r="P19" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>274</v>
-      </c>
-      <c r="R19" t="s">
-        <v>274</v>
-      </c>
-      <c r="S19" t="s">
-        <v>274</v>
-      </c>
-      <c r="T19" t="s">
-        <v>312</v>
-      </c>
-      <c r="U19" t="s">
-        <v>274</v>
-      </c>
-      <c r="V19" t="s">
-        <v>274</v>
-      </c>
-      <c r="W19" t="s">
-        <v>274</v>
-      </c>
-      <c r="X19" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20">
-        <v>2021</v>
-      </c>
-      <c r="E20" t="s">
-        <v>348</v>
       </c>
       <c r="F20" t="s">
         <v>308</v>
       </c>
       <c r="G20">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>274</v>
+        <v>377</v>
       </c>
       <c r="I20" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="J20" t="s">
+        <v>503</v>
+      </c>
+      <c r="K20" t="s">
         <v>286</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>263</v>
       </c>
-      <c r="L20" t="s">
-        <v>353</v>
-      </c>
       <c r="M20" t="s">
+        <v>341</v>
+      </c>
+      <c r="N20" t="s">
+        <v>274</v>
+      </c>
+      <c r="O20" t="s">
+        <v>279</v>
+      </c>
+      <c r="P20" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>280</v>
+      </c>
+      <c r="R20" t="s">
+        <v>274</v>
+      </c>
+      <c r="S20" t="s">
+        <v>274</v>
+      </c>
+      <c r="T20" t="s">
+        <v>274</v>
+      </c>
+      <c r="U20" t="s">
+        <v>257</v>
+      </c>
+      <c r="V20" t="s">
+        <v>274</v>
+      </c>
+      <c r="W20" t="s">
+        <v>274</v>
+      </c>
+      <c r="X20" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" t="s">
+        <v>466</v>
+      </c>
+      <c r="D21">
+        <v>2021</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H21" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" t="s">
+        <v>390</v>
+      </c>
+      <c r="J21" t="s">
+        <v>516</v>
+      </c>
+      <c r="K21" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" t="s">
+        <v>264</v>
+      </c>
+      <c r="M21" t="s">
+        <v>382</v>
+      </c>
+      <c r="N21" t="s">
         <v>272</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O21" t="s">
         <v>279</v>
       </c>
-      <c r="O20" t="s">
-        <v>394</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="P21" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q21" t="s">
         <v>280</v>
       </c>
-      <c r="Q20" t="s">
-        <v>274</v>
-      </c>
-      <c r="R20" t="s">
-        <v>274</v>
-      </c>
-      <c r="S20" t="s">
-        <v>274</v>
-      </c>
-      <c r="T20" t="s">
-        <v>274</v>
-      </c>
-      <c r="U20" t="s">
-        <v>274</v>
-      </c>
-      <c r="V20" t="s">
-        <v>274</v>
-      </c>
-      <c r="W20" t="s">
-        <v>274</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="R21" t="s">
+        <v>469</v>
+      </c>
+      <c r="S21" t="s">
+        <v>274</v>
+      </c>
+      <c r="T21" t="s">
+        <v>274</v>
+      </c>
+      <c r="U21" t="s">
+        <v>257</v>
+      </c>
+      <c r="V21" t="s">
+        <v>274</v>
+      </c>
+      <c r="W21" t="s">
+        <v>274</v>
+      </c>
+      <c r="X21" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC21" t="s">
         <v>263</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AD21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+      <c r="E22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>274</v>
+      </c>
+      <c r="I22" t="s">
+        <v>392</v>
+      </c>
+      <c r="J22" t="s">
+        <v>513</v>
+      </c>
+      <c r="K22" t="s">
+        <v>286</v>
+      </c>
+      <c r="L22" t="s">
         <v>263</v>
       </c>
-      <c r="Z20" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF20" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>363</v>
-      </c>
-      <c r="C21" t="s">
-        <v>368</v>
-      </c>
-      <c r="D21">
-        <v>2015</v>
-      </c>
-      <c r="E21" t="s">
-        <v>364</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>591</v>
-      </c>
-      <c r="H21" t="s">
-        <v>366</v>
-      </c>
-      <c r="I21" t="s">
-        <v>365</v>
-      </c>
-      <c r="J21" t="s">
-        <v>270</v>
-      </c>
-      <c r="K21" t="s">
-        <v>263</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="M21" t="s">
-        <v>278</v>
-      </c>
-      <c r="N21" t="s">
-        <v>320</v>
-      </c>
-      <c r="O21" t="s">
-        <v>274</v>
-      </c>
-      <c r="P21" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>274</v>
-      </c>
-      <c r="R21" t="s">
-        <v>274</v>
-      </c>
-      <c r="S21" t="s">
-        <v>274</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="M22" t="s">
+        <v>300</v>
+      </c>
+      <c r="N22" t="s">
+        <v>272</v>
+      </c>
+      <c r="O22" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>280</v>
+      </c>
+      <c r="R22" t="s">
+        <v>274</v>
+      </c>
+      <c r="S22" t="s">
+        <v>274</v>
+      </c>
+      <c r="T22" t="s">
+        <v>274</v>
+      </c>
+      <c r="U22" t="s">
         <v>367</v>
       </c>
-      <c r="U21" t="s">
-        <v>274</v>
-      </c>
-      <c r="V21" t="s">
-        <v>274</v>
-      </c>
-      <c r="W21" t="s">
-        <v>274</v>
-      </c>
-      <c r="X21" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B22" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" t="s">
-        <v>466</v>
-      </c>
-      <c r="D22">
-        <v>2021</v>
-      </c>
-      <c r="E22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G22">
-        <v>641</v>
-      </c>
-      <c r="H22" t="s">
-        <v>274</v>
-      </c>
-      <c r="I22" t="s">
-        <v>371</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="K22" t="s">
-        <v>263</v>
-      </c>
-      <c r="L22" t="s">
-        <v>277</v>
-      </c>
-      <c r="M22" t="s">
-        <v>278</v>
-      </c>
-      <c r="N22" t="s">
-        <v>279</v>
-      </c>
-      <c r="O22" t="s">
-        <v>372</v>
-      </c>
-      <c r="P22" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>274</v>
-      </c>
-      <c r="R22" t="s">
-        <v>274</v>
-      </c>
-      <c r="S22" t="s">
-        <v>274</v>
-      </c>
-      <c r="T22" t="s">
-        <v>257</v>
-      </c>
-      <c r="U22" t="s">
-        <v>274</v>
-      </c>
       <c r="V22" t="s">
         <v>274</v>
       </c>
@@ -10592,19 +11346,19 @@
         <v>274</v>
       </c>
       <c r="X22" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="Y22" t="s">
         <v>264</v>
       </c>
       <c r="Z22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AB22" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="AC22" t="s">
         <v>274</v>
@@ -10615,166 +11369,172 @@
       <c r="AE22" t="s">
         <v>274</v>
       </c>
-      <c r="AF22" s="19" t="s">
-        <v>449</v>
+      <c r="AF22" t="s">
+        <v>274</v>
       </c>
       <c r="AG22" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>398</v>
       </c>
       <c r="B23" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="C23" t="s">
         <v>376</v>
       </c>
       <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>274</v>
+      </c>
+      <c r="I23" t="s">
+        <v>400</v>
+      </c>
+      <c r="J23" t="s">
+        <v>513</v>
+      </c>
+      <c r="K23" t="s">
+        <v>286</v>
+      </c>
+      <c r="L23" t="s">
+        <v>263</v>
+      </c>
+      <c r="M23" t="s">
+        <v>300</v>
+      </c>
+      <c r="N23" t="s">
+        <v>272</v>
+      </c>
+      <c r="O23" t="s">
+        <v>279</v>
+      </c>
+      <c r="P23" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>280</v>
+      </c>
+      <c r="R23" t="s">
+        <v>274</v>
+      </c>
+      <c r="S23" t="s">
+        <v>274</v>
+      </c>
+      <c r="T23" t="s">
+        <v>263</v>
+      </c>
+      <c r="U23" t="s">
+        <v>367</v>
+      </c>
+      <c r="V23" t="s">
+        <v>274</v>
+      </c>
+      <c r="W23" t="s">
+        <v>274</v>
+      </c>
+      <c r="X23" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24">
         <v>2019</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>250</v>
       </c>
-      <c r="F23" t="s">
-        <v>338</v>
-      </c>
-      <c r="G23">
-        <v>89</v>
-      </c>
-      <c r="H23" t="s">
-        <v>377</v>
-      </c>
-      <c r="I23" t="s">
-        <v>374</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="F24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>274</v>
+      </c>
+      <c r="I24" t="s">
+        <v>403</v>
+      </c>
+      <c r="J24" t="s">
+        <v>513</v>
+      </c>
+      <c r="K24" t="s">
         <v>286</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L24" t="s">
         <v>263</v>
       </c>
-      <c r="L23" t="s">
-        <v>375</v>
-      </c>
-      <c r="M23" t="s">
-        <v>274</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M24" t="s">
+        <v>300</v>
+      </c>
+      <c r="N24" t="s">
+        <v>272</v>
+      </c>
+      <c r="O24" t="s">
         <v>279</v>
       </c>
-      <c r="O23" t="s">
-        <v>274</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="P24" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q24" t="s">
         <v>280</v>
       </c>
-      <c r="Q23" t="s">
-        <v>274</v>
-      </c>
-      <c r="R23" t="s">
-        <v>274</v>
-      </c>
-      <c r="S23" t="s">
-        <v>274</v>
-      </c>
-      <c r="T23" t="s">
-        <v>257</v>
-      </c>
-      <c r="U23" t="s">
-        <v>274</v>
-      </c>
-      <c r="V23" t="s">
-        <v>274</v>
-      </c>
-      <c r="W23" t="s">
-        <v>378</v>
-      </c>
-      <c r="X23" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D24">
-        <v>2020</v>
-      </c>
-      <c r="E24" t="s">
-        <v>383</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24">
-        <v>124</v>
-      </c>
-      <c r="H24" t="s">
-        <v>274</v>
-      </c>
-      <c r="I24" t="s">
-        <v>385</v>
-      </c>
-      <c r="J24" t="s">
-        <v>286</v>
-      </c>
-      <c r="K24" t="s">
-        <v>264</v>
-      </c>
-      <c r="L24" t="s">
-        <v>382</v>
-      </c>
-      <c r="M24" t="s">
-        <v>272</v>
-      </c>
-      <c r="N24" t="s">
-        <v>279</v>
-      </c>
-      <c r="O24" t="s">
-        <v>384</v>
-      </c>
-      <c r="P24" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>274</v>
-      </c>
       <c r="R24" t="s">
         <v>274</v>
       </c>
@@ -10782,19 +11542,19 @@
         <v>274</v>
       </c>
       <c r="T24" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="U24" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="V24" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="W24" t="s">
         <v>274</v>
       </c>
       <c r="X24" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y24" t="s">
         <v>264</v>
@@ -10803,10 +11563,10 @@
         <v>264</v>
       </c>
       <c r="AA24" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AB24" t="s">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="AC24" t="s">
         <v>274</v>
@@ -10823,294 +11583,303 @@
       <c r="AG24" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="C25" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="D25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E25" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="F25" t="s">
         <v>308</v>
       </c>
-      <c r="G25" t="s">
-        <v>274</v>
+      <c r="G25">
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>274</v>
+        <v>414</v>
       </c>
       <c r="I25" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="J25" t="s">
+        <v>514</v>
+      </c>
+      <c r="K25" t="s">
         <v>286</v>
       </c>
-      <c r="K25" t="s">
-        <v>264</v>
-      </c>
       <c r="L25" t="s">
-        <v>382</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s">
-        <v>272</v>
+        <v>410</v>
       </c>
       <c r="N25" t="s">
+        <v>278</v>
+      </c>
+      <c r="O25" t="s">
+        <v>255</v>
+      </c>
+      <c r="P25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>254</v>
+      </c>
+      <c r="R25" t="s">
+        <v>274</v>
+      </c>
+      <c r="S25" t="s">
+        <v>274</v>
+      </c>
+      <c r="T25" t="s">
+        <v>274</v>
+      </c>
+      <c r="U25" t="s">
+        <v>257</v>
+      </c>
+      <c r="V25" t="s">
+        <v>274</v>
+      </c>
+      <c r="W25" t="s">
+        <v>331</v>
+      </c>
+      <c r="X25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26">
+        <v>2018</v>
+      </c>
+      <c r="E26" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26">
+        <v>94</v>
+      </c>
+      <c r="H26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I26" t="s">
+        <v>419</v>
+      </c>
+      <c r="J26" t="s">
+        <v>515</v>
+      </c>
+      <c r="K26" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" t="s">
+        <v>410</v>
+      </c>
+      <c r="N26" t="s">
+        <v>278</v>
+      </c>
+      <c r="O26" t="s">
         <v>279</v>
       </c>
-      <c r="O25" t="s">
-        <v>389</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="P26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q26" t="s">
         <v>280</v>
       </c>
-      <c r="Q25" t="s">
-        <v>274</v>
-      </c>
-      <c r="R25" t="s">
-        <v>274</v>
-      </c>
-      <c r="S25" t="s">
-        <v>274</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="R26" t="s">
+        <v>274</v>
+      </c>
+      <c r="S26" t="s">
+        <v>274</v>
+      </c>
+      <c r="T26" t="s">
+        <v>274</v>
+      </c>
+      <c r="U26" t="s">
+        <v>421</v>
+      </c>
+      <c r="V26" t="s">
+        <v>274</v>
+      </c>
+      <c r="W26" t="s">
+        <v>274</v>
+      </c>
+      <c r="X26" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27">
+        <v>2021</v>
+      </c>
+      <c r="E27" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27">
+        <v>117</v>
+      </c>
+      <c r="H27" t="s">
+        <v>431</v>
+      </c>
+      <c r="I27" t="s">
+        <v>430</v>
+      </c>
+      <c r="J27" t="s">
+        <v>520</v>
+      </c>
+      <c r="K27" t="s">
+        <v>286</v>
+      </c>
+      <c r="L27" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" t="s">
+        <v>341</v>
+      </c>
+      <c r="N27" t="s">
+        <v>429</v>
+      </c>
+      <c r="O27" t="s">
+        <v>279</v>
+      </c>
+      <c r="P27" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>280</v>
+      </c>
+      <c r="R27" t="s">
+        <v>274</v>
+      </c>
+      <c r="S27" t="s">
+        <v>274</v>
+      </c>
+      <c r="T27" t="s">
+        <v>274</v>
+      </c>
+      <c r="U27" t="s">
         <v>257</v>
       </c>
-      <c r="U25" t="s">
-        <v>274</v>
-      </c>
-      <c r="V25" t="s">
-        <v>274</v>
-      </c>
-      <c r="W25" t="s">
-        <v>274</v>
-      </c>
-      <c r="X25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="V27" t="s">
+        <v>274</v>
+      </c>
+      <c r="W27" t="s">
+        <v>331</v>
+      </c>
+      <c r="X27" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB27" t="s">
         <v>262</v>
       </c>
-      <c r="AB25" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>399</v>
-      </c>
-      <c r="B26" t="s">
-        <v>391</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26">
-        <v>2022</v>
-      </c>
-      <c r="E26" t="s">
-        <v>208</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26">
-        <v>32</v>
-      </c>
-      <c r="H26" t="s">
-        <v>274</v>
-      </c>
-      <c r="I26" t="s">
-        <v>392</v>
-      </c>
-      <c r="J26" t="s">
-        <v>286</v>
-      </c>
-      <c r="K26" t="s">
-        <v>263</v>
-      </c>
-      <c r="L26" t="s">
-        <v>310</v>
-      </c>
-      <c r="M26" t="s">
-        <v>272</v>
-      </c>
-      <c r="N26" t="s">
-        <v>320</v>
-      </c>
-      <c r="O26" t="s">
-        <v>393</v>
-      </c>
-      <c r="P26" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>274</v>
-      </c>
-      <c r="R26" t="s">
-        <v>274</v>
-      </c>
-      <c r="S26" t="s">
-        <v>274</v>
-      </c>
-      <c r="T26" t="s">
-        <v>367</v>
-      </c>
-      <c r="U26" t="s">
-        <v>274</v>
-      </c>
-      <c r="V26" t="s">
-        <v>274</v>
-      </c>
-      <c r="W26" t="s">
-        <v>274</v>
-      </c>
-      <c r="X26" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>398</v>
-      </c>
-      <c r="B27" t="s">
-        <v>396</v>
-      </c>
-      <c r="C27" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27">
-        <v>2020</v>
-      </c>
-      <c r="E27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" t="s">
-        <v>308</v>
-      </c>
-      <c r="G27">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
-        <v>274</v>
-      </c>
-      <c r="I27" t="s">
-        <v>400</v>
-      </c>
-      <c r="J27" t="s">
-        <v>286</v>
-      </c>
-      <c r="K27" t="s">
-        <v>263</v>
-      </c>
-      <c r="L27" t="s">
-        <v>310</v>
-      </c>
-      <c r="M27" t="s">
-        <v>272</v>
-      </c>
-      <c r="N27" t="s">
-        <v>279</v>
-      </c>
-      <c r="O27" t="s">
-        <v>401</v>
-      </c>
-      <c r="P27" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>274</v>
-      </c>
-      <c r="R27" t="s">
-        <v>274</v>
-      </c>
-      <c r="S27" t="s">
-        <v>263</v>
-      </c>
-      <c r="T27" t="s">
-        <v>367</v>
-      </c>
-      <c r="U27" t="s">
-        <v>274</v>
-      </c>
-      <c r="V27" t="s">
-        <v>274</v>
-      </c>
-      <c r="W27" t="s">
-        <v>274</v>
-      </c>
-      <c r="X27" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>274</v>
-      </c>
       <c r="AC27" t="s">
         <v>274</v>
       </c>
@@ -11124,687 +11893,708 @@
         <v>274</v>
       </c>
       <c r="AG27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="D28">
         <v>2019</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
+        <v>208</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="I28" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="J28" t="s">
+        <v>517</v>
+      </c>
+      <c r="K28" t="s">
         <v>286</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="s">
+        <v>490</v>
+      </c>
+      <c r="N28" t="s">
+        <v>272</v>
+      </c>
+      <c r="O28" t="s">
+        <v>255</v>
+      </c>
+      <c r="P28" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>280</v>
+      </c>
+      <c r="R28" t="s">
+        <v>274</v>
+      </c>
+      <c r="S28" t="s">
+        <v>274</v>
+      </c>
+      <c r="T28" t="s">
+        <v>274</v>
+      </c>
+      <c r="U28" t="s">
+        <v>367</v>
+      </c>
+      <c r="V28" t="s">
+        <v>274</v>
+      </c>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29">
+        <v>2016</v>
+      </c>
+      <c r="E29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I29" t="s">
+        <v>441</v>
+      </c>
+      <c r="J29" t="s">
+        <v>518</v>
+      </c>
+      <c r="K29" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="s">
+        <v>289</v>
+      </c>
+      <c r="N29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s">
+        <v>279</v>
+      </c>
+      <c r="P29" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>280</v>
+      </c>
+      <c r="R29" t="s">
+        <v>274</v>
+      </c>
+      <c r="S29" t="s">
+        <v>274</v>
+      </c>
+      <c r="T29" t="s">
+        <v>274</v>
+      </c>
+      <c r="U29" t="s">
+        <v>257</v>
+      </c>
+      <c r="V29" t="s">
+        <v>274</v>
+      </c>
+      <c r="W29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X29" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA29" t="s">
         <v>263</v>
       </c>
-      <c r="L28" t="s">
-        <v>310</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="AB29" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>442</v>
+      </c>
+      <c r="C30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30">
+        <v>2016</v>
+      </c>
+      <c r="E30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30" t="s">
+        <v>274</v>
+      </c>
+      <c r="I30" t="s">
+        <v>444</v>
+      </c>
+      <c r="J30" t="s">
+        <v>512</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="s">
+        <v>443</v>
+      </c>
+      <c r="N30" t="s">
         <v>272</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O30" t="s">
         <v>279</v>
       </c>
-      <c r="O28" t="s">
-        <v>405</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="P30" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q30" t="s">
         <v>280</v>
       </c>
-      <c r="Q28" t="s">
-        <v>274</v>
-      </c>
-      <c r="R28" t="s">
-        <v>274</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="R30" t="s">
+        <v>274</v>
+      </c>
+      <c r="S30" t="s">
+        <v>274</v>
+      </c>
+      <c r="T30" t="s">
         <v>263</v>
       </c>
-      <c r="T28" t="s">
-        <v>367</v>
-      </c>
-      <c r="U28" t="s">
-        <v>274</v>
-      </c>
-      <c r="V28" t="s">
-        <v>274</v>
-      </c>
-      <c r="W28" t="s">
-        <v>274</v>
-      </c>
-      <c r="X28" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>406</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>408</v>
-      </c>
-      <c r="B29" t="s">
-        <v>407</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="U30" t="s">
+        <v>445</v>
+      </c>
+      <c r="V30" t="s">
+        <v>446</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>448</v>
+      </c>
+      <c r="C31" t="s">
         <v>466</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2013</v>
       </c>
-      <c r="E29" t="s">
-        <v>333</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s">
-        <v>274</v>
-      </c>
-      <c r="I29" t="s">
-        <v>409</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="E31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" t="s">
+        <v>274</v>
+      </c>
+      <c r="I31" t="s">
+        <v>453</v>
+      </c>
+      <c r="J31" t="s">
+        <v>519</v>
+      </c>
+      <c r="K31" t="s">
         <v>286</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L31" t="s">
         <v>263</v>
       </c>
-      <c r="L29" t="s">
-        <v>410</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="M31" t="s">
+        <v>300</v>
+      </c>
+      <c r="N31" t="s">
         <v>272</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O31" t="s">
         <v>279</v>
       </c>
-      <c r="O29" t="s">
-        <v>274</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="P31" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q31" t="s">
         <v>280</v>
       </c>
-      <c r="Q29" t="s">
-        <v>274</v>
-      </c>
-      <c r="R29" t="s">
-        <v>274</v>
-      </c>
-      <c r="S29" t="s">
-        <v>274</v>
-      </c>
-      <c r="T29" t="s">
-        <v>274</v>
-      </c>
-      <c r="U29" t="s">
-        <v>274</v>
-      </c>
-      <c r="V29" t="s">
-        <v>274</v>
-      </c>
-      <c r="W29" t="s">
-        <v>274</v>
-      </c>
-      <c r="X29" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" t="s">
-        <v>411</v>
-      </c>
-      <c r="C30" t="s">
-        <v>413</v>
-      </c>
-      <c r="D30">
-        <v>2022</v>
-      </c>
-      <c r="E30" t="s">
-        <v>412</v>
-      </c>
-      <c r="F30" t="s">
-        <v>308</v>
-      </c>
-      <c r="G30">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s">
-        <v>414</v>
-      </c>
-      <c r="I30" t="s">
-        <v>415</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="R31" t="s">
+        <v>274</v>
+      </c>
+      <c r="S31" t="s">
+        <v>274</v>
+      </c>
+      <c r="T31" t="s">
+        <v>274</v>
+      </c>
+      <c r="U31" t="s">
+        <v>257</v>
+      </c>
+      <c r="V31" t="s">
+        <v>274</v>
+      </c>
+      <c r="W31" t="s">
+        <v>451</v>
+      </c>
+      <c r="X31" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG31" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32">
+        <v>2012</v>
+      </c>
+      <c r="E32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" t="s">
+        <v>457</v>
+      </c>
+      <c r="J32" t="s">
+        <v>509</v>
+      </c>
+      <c r="K32" t="s">
         <v>286</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L32" t="s">
         <v>263</v>
       </c>
-      <c r="L30" t="s">
-        <v>410</v>
-      </c>
-      <c r="M30" t="s">
-        <v>278</v>
-      </c>
-      <c r="N30" t="s">
-        <v>320</v>
-      </c>
-      <c r="O30" t="s">
-        <v>274</v>
-      </c>
-      <c r="P30" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>416</v>
-      </c>
-      <c r="R30" t="s">
-        <v>274</v>
-      </c>
-      <c r="S30" t="s">
-        <v>274</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="M32" t="s">
+        <v>300</v>
+      </c>
+      <c r="N32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
+        <v>255</v>
+      </c>
+      <c r="P32" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>280</v>
+      </c>
+      <c r="R32" t="s">
+        <v>274</v>
+      </c>
+      <c r="S32" t="s">
+        <v>274</v>
+      </c>
+      <c r="T32" t="s">
+        <v>263</v>
+      </c>
+      <c r="U32" t="s">
+        <v>312</v>
+      </c>
+      <c r="V32" t="s">
+        <v>499</v>
+      </c>
+      <c r="W32" t="s">
+        <v>274</v>
+      </c>
+      <c r="X32" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>458</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33">
+        <v>2012</v>
+      </c>
+      <c r="E33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J33" t="s">
+        <v>521</v>
+      </c>
+      <c r="K33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="s">
+        <v>277</v>
+      </c>
+      <c r="N33" t="s">
+        <v>274</v>
+      </c>
+      <c r="O33" t="s">
+        <v>255</v>
+      </c>
+      <c r="P33" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>280</v>
+      </c>
+      <c r="R33" t="s">
+        <v>274</v>
+      </c>
+      <c r="S33" t="s">
+        <v>274</v>
+      </c>
+      <c r="T33" t="s">
+        <v>263</v>
+      </c>
+      <c r="U33" t="s">
         <v>257</v>
       </c>
-      <c r="U30" t="s">
-        <v>274</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="V33" t="s">
+        <v>274</v>
+      </c>
+      <c r="W33" t="s">
         <v>331</v>
       </c>
-      <c r="W30" t="s">
-        <v>274</v>
-      </c>
-      <c r="X30" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>417</v>
-      </c>
-      <c r="B31" t="s">
-        <v>418</v>
-      </c>
-      <c r="C31" t="s">
-        <v>420</v>
-      </c>
-      <c r="D31">
-        <v>2018</v>
-      </c>
-      <c r="E31" t="s">
-        <v>333</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31">
-        <v>94</v>
-      </c>
-      <c r="H31" t="s">
-        <v>274</v>
-      </c>
-      <c r="I31" t="s">
-        <v>419</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="X33" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34" t="s">
+        <v>466</v>
+      </c>
+      <c r="D34">
+        <v>2014</v>
+      </c>
+      <c r="E34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>274</v>
+      </c>
+      <c r="I34" t="s">
+        <v>465</v>
+      </c>
+      <c r="J34" t="s">
+        <v>522</v>
+      </c>
+      <c r="K34" t="s">
         <v>286</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L34" t="s">
         <v>263</v>
       </c>
-      <c r="L31" t="s">
-        <v>410</v>
-      </c>
-      <c r="M31" t="s">
-        <v>278</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="M34" t="s">
+        <v>463</v>
+      </c>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s">
         <v>279</v>
       </c>
-      <c r="O31" t="s">
-        <v>274</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="P34" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q34" t="s">
         <v>280</v>
       </c>
-      <c r="Q31" t="s">
-        <v>274</v>
-      </c>
-      <c r="R31" t="s">
-        <v>274</v>
-      </c>
-      <c r="S31" t="s">
-        <v>274</v>
-      </c>
-      <c r="T31" t="s">
-        <v>421</v>
-      </c>
-      <c r="U31" t="s">
-        <v>274</v>
-      </c>
-      <c r="V31" t="s">
-        <v>274</v>
-      </c>
-      <c r="W31" t="s">
-        <v>274</v>
-      </c>
-      <c r="X31" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>406</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>425</v>
-      </c>
-      <c r="B32" t="s">
-        <v>422</v>
-      </c>
-      <c r="C32" t="s">
-        <v>267</v>
-      </c>
-      <c r="D32">
-        <v>2019</v>
-      </c>
-      <c r="E32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32">
-        <v>291</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="I32" t="s">
-        <v>423</v>
-      </c>
-      <c r="J32" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="R34" t="s">
+        <v>328</v>
+      </c>
+      <c r="S34" t="s">
+        <v>274</v>
+      </c>
+      <c r="T34" t="s">
         <v>263</v>
       </c>
-      <c r="L32" t="s">
-        <v>271</v>
-      </c>
-      <c r="M32" t="s">
-        <v>278</v>
-      </c>
-      <c r="N32" t="s">
-        <v>320</v>
-      </c>
-      <c r="O32" t="s">
-        <v>424</v>
-      </c>
-      <c r="P32" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>274</v>
-      </c>
-      <c r="R32" t="s">
-        <v>274</v>
-      </c>
-      <c r="S32" t="s">
-        <v>274</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="U34" t="s">
         <v>257</v>
       </c>
-      <c r="U32" t="s">
-        <v>274</v>
-      </c>
-      <c r="V32" t="s">
-        <v>274</v>
-      </c>
-      <c r="W32" t="s">
-        <v>274</v>
-      </c>
-      <c r="X32" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>427</v>
-      </c>
-      <c r="C33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D33">
-        <v>2021</v>
-      </c>
-      <c r="E33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33">
-        <v>117</v>
-      </c>
-      <c r="H33" t="s">
-        <v>431</v>
-      </c>
-      <c r="I33" t="s">
-        <v>430</v>
-      </c>
-      <c r="J33" t="s">
-        <v>286</v>
-      </c>
-      <c r="K33" t="s">
-        <v>263</v>
-      </c>
-      <c r="L33" t="s">
-        <v>341</v>
-      </c>
-      <c r="M33" t="s">
-        <v>429</v>
-      </c>
-      <c r="N33" t="s">
-        <v>279</v>
-      </c>
-      <c r="O33" t="s">
-        <v>428</v>
-      </c>
-      <c r="P33" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>274</v>
-      </c>
-      <c r="R33" t="s">
-        <v>274</v>
-      </c>
-      <c r="S33" t="s">
-        <v>274</v>
-      </c>
-      <c r="T33" t="s">
-        <v>257</v>
-      </c>
-      <c r="U33" t="s">
-        <v>274</v>
-      </c>
-      <c r="V33" t="s">
+      <c r="V34" t="s">
+        <v>274</v>
+      </c>
+      <c r="W34" t="s">
         <v>331</v>
       </c>
-      <c r="W33" t="s">
-        <v>274</v>
-      </c>
-      <c r="X33" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" t="s">
-        <v>433</v>
-      </c>
-      <c r="C34" t="s">
-        <v>283</v>
-      </c>
-      <c r="D34">
-        <v>2019</v>
-      </c>
-      <c r="E34" t="s">
-        <v>434</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s">
-        <v>292</v>
-      </c>
-      <c r="I34" t="s">
-        <v>435</v>
-      </c>
-      <c r="J34" t="s">
-        <v>286</v>
-      </c>
-      <c r="K34" t="s">
-        <v>264</v>
-      </c>
-      <c r="L34" t="s">
-        <v>285</v>
-      </c>
-      <c r="M34" t="s">
-        <v>272</v>
-      </c>
-      <c r="N34" t="s">
-        <v>437</v>
-      </c>
-      <c r="O34" t="s">
-        <v>436</v>
-      </c>
-      <c r="P34" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>274</v>
-      </c>
-      <c r="R34" t="s">
-        <v>274</v>
-      </c>
-      <c r="S34" t="s">
-        <v>274</v>
-      </c>
-      <c r="T34" t="s">
-        <v>367</v>
-      </c>
-      <c r="U34" t="s">
-        <v>274</v>
-      </c>
-      <c r="V34" t="s">
-        <v>274</v>
-      </c>
-      <c r="W34" t="s">
-        <v>274</v>
-      </c>
       <c r="X34" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y34" t="s">
         <v>264</v>
@@ -11813,10 +12603,10 @@
         <v>264</v>
       </c>
       <c r="AA34" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AB34" t="s">
-        <v>274</v>
+        <v>494</v>
       </c>
       <c r="AC34" t="s">
         <v>274</v>
@@ -11825,7 +12615,7 @@
         <v>274</v>
       </c>
       <c r="AE34" t="s">
-        <v>438</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s">
         <v>274</v>
@@ -11833,91 +12623,94 @@
       <c r="AG34" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="C35" t="s">
         <v>299</v>
       </c>
       <c r="D35">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="H35" t="s">
         <v>274</v>
       </c>
       <c r="I35" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="J35" t="s">
+        <v>523</v>
+      </c>
+      <c r="K35" t="s">
         <v>286</v>
       </c>
-      <c r="K35" t="s">
-        <v>264</v>
-      </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="M35" t="s">
+        <v>277</v>
+      </c>
+      <c r="N35" t="s">
         <v>272</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>279</v>
       </c>
-      <c r="O35" t="s">
-        <v>440</v>
-      </c>
       <c r="P35" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q35" t="s">
         <v>280</v>
       </c>
-      <c r="Q35" t="s">
-        <v>274</v>
-      </c>
       <c r="R35" t="s">
-        <v>274</v>
+        <v>469</v>
       </c>
       <c r="S35" t="s">
         <v>274</v>
       </c>
       <c r="T35" t="s">
+        <v>263</v>
+      </c>
+      <c r="U35" t="s">
         <v>257</v>
       </c>
-      <c r="U35" t="s">
-        <v>274</v>
-      </c>
       <c r="V35" t="s">
         <v>274</v>
       </c>
       <c r="W35" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
-        <v>264</v>
+        <v>378</v>
       </c>
       <c r="Y35" t="s">
         <v>264</v>
       </c>
       <c r="Z35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA35" t="s">
-        <v>406</v>
+        <v>264</v>
       </c>
       <c r="AB35" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AC35" t="s">
         <v>274</v>
@@ -11932,72 +12725,75 @@
         <v>274</v>
       </c>
       <c r="AG35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="C36" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D36">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E36" t="s">
-        <v>234</v>
+        <v>485</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>274</v>
+        <v>308</v>
+      </c>
+      <c r="G36">
+        <v>209</v>
       </c>
       <c r="H36" t="s">
         <v>274</v>
       </c>
       <c r="I36" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="J36" t="s">
+        <v>524</v>
+      </c>
+      <c r="K36" t="s">
         <v>286</v>
       </c>
-      <c r="K36" t="s">
-        <v>263</v>
-      </c>
       <c r="L36" t="s">
-        <v>443</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s">
+        <v>487</v>
+      </c>
+      <c r="N36" t="s">
         <v>272</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>279</v>
       </c>
-      <c r="O36" t="s">
-        <v>274</v>
-      </c>
       <c r="P36" t="s">
-        <v>280</v>
+        <v>488</v>
       </c>
       <c r="Q36" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="R36" t="s">
         <v>274</v>
       </c>
       <c r="S36" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="T36" t="s">
-        <v>445</v>
+        <v>274</v>
       </c>
       <c r="U36" t="s">
-        <v>446</v>
+        <v>312</v>
       </c>
       <c r="V36" t="s">
         <v>274</v>
@@ -12006,7 +12802,7 @@
         <v>274</v>
       </c>
       <c r="X36" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y36" t="s">
         <v>264</v>
@@ -12015,10 +12811,10 @@
         <v>264</v>
       </c>
       <c r="AA36" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AB36" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="AC36" t="s">
         <v>274</v>
@@ -12030,518 +12826,19 @@
         <v>274</v>
       </c>
       <c r="AF36" t="s">
-        <v>447</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>448</v>
-      </c>
-      <c r="C37" t="s">
-        <v>466</v>
-      </c>
-      <c r="D37">
-        <v>2013</v>
-      </c>
-      <c r="E37" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>274</v>
-      </c>
-      <c r="H37" t="s">
-        <v>274</v>
-      </c>
-      <c r="I37" t="s">
-        <v>453</v>
-      </c>
-      <c r="J37" t="s">
-        <v>286</v>
-      </c>
-      <c r="K37" t="s">
-        <v>263</v>
-      </c>
-      <c r="L37" t="s">
-        <v>310</v>
-      </c>
-      <c r="M37" t="s">
-        <v>272</v>
-      </c>
-      <c r="N37" t="s">
-        <v>279</v>
-      </c>
-      <c r="O37" t="s">
-        <v>274</v>
-      </c>
-      <c r="P37" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>274</v>
-      </c>
-      <c r="R37" t="s">
-        <v>274</v>
-      </c>
-      <c r="S37" t="s">
-        <v>274</v>
-      </c>
-      <c r="T37" t="s">
-        <v>257</v>
-      </c>
-      <c r="U37" t="s">
-        <v>274</v>
-      </c>
-      <c r="V37" t="s">
-        <v>451</v>
-      </c>
-      <c r="W37" t="s">
-        <v>451</v>
-      </c>
-      <c r="X37" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>452</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>450</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" t="s">
-        <v>454</v>
-      </c>
-      <c r="C38" t="s">
-        <v>299</v>
-      </c>
-      <c r="D38">
-        <v>2012</v>
-      </c>
-      <c r="E38" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>274</v>
-      </c>
-      <c r="H38" t="s">
-        <v>274</v>
-      </c>
-      <c r="I38" t="s">
-        <v>457</v>
-      </c>
-      <c r="J38" t="s">
-        <v>286</v>
-      </c>
-      <c r="K38" t="s">
-        <v>263</v>
-      </c>
-      <c r="L38" t="s">
-        <v>310</v>
-      </c>
-      <c r="M38" t="s">
-        <v>274</v>
-      </c>
-      <c r="N38" t="s">
-        <v>307</v>
-      </c>
-      <c r="O38" t="s">
-        <v>455</v>
-      </c>
-      <c r="P38" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>274</v>
-      </c>
-      <c r="R38" t="s">
-        <v>274</v>
-      </c>
-      <c r="S38" t="s">
-        <v>263</v>
-      </c>
-      <c r="T38" t="s">
-        <v>312</v>
-      </c>
-      <c r="U38" t="s">
-        <v>456</v>
-      </c>
-      <c r="V38" t="s">
-        <v>313</v>
-      </c>
-      <c r="W38" t="s">
-        <v>274</v>
-      </c>
-      <c r="X38" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" t="s">
-        <v>458</v>
-      </c>
-      <c r="C39" t="s">
-        <v>299</v>
-      </c>
-      <c r="D39">
-        <v>2012</v>
-      </c>
-      <c r="E39" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39">
-        <v>33</v>
-      </c>
-      <c r="H39" t="s">
-        <v>274</v>
-      </c>
-      <c r="I39" t="s">
-        <v>460</v>
-      </c>
-      <c r="J39" t="s">
-        <v>286</v>
-      </c>
-      <c r="K39" t="s">
-        <v>263</v>
-      </c>
-      <c r="L39" t="s">
-        <v>277</v>
-      </c>
-      <c r="M39" t="s">
-        <v>274</v>
-      </c>
-      <c r="N39" t="s">
-        <v>307</v>
-      </c>
-      <c r="O39" t="s">
-        <v>459</v>
-      </c>
-      <c r="P39" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>274</v>
-      </c>
-      <c r="R39" t="s">
-        <v>274</v>
-      </c>
-      <c r="S39" t="s">
-        <v>263</v>
-      </c>
-      <c r="T39" t="s">
-        <v>257</v>
-      </c>
-      <c r="U39" t="s">
-        <v>274</v>
-      </c>
-      <c r="V39" t="s">
-        <v>331</v>
-      </c>
-      <c r="W39" t="s">
-        <v>274</v>
-      </c>
-      <c r="X39" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" t="s">
-        <v>461</v>
-      </c>
-      <c r="C40" t="s">
-        <v>466</v>
-      </c>
-      <c r="D40">
-        <v>2014</v>
-      </c>
-      <c r="E40" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s">
-        <v>274</v>
-      </c>
-      <c r="I40" t="s">
-        <v>465</v>
-      </c>
-      <c r="J40" t="s">
-        <v>286</v>
-      </c>
-      <c r="K40" t="s">
-        <v>263</v>
-      </c>
-      <c r="L40" t="s">
-        <v>463</v>
-      </c>
-      <c r="M40" t="s">
-        <v>274</v>
-      </c>
-      <c r="N40" t="s">
-        <v>279</v>
-      </c>
-      <c r="O40" t="s">
-        <v>462</v>
-      </c>
-      <c r="P40" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>328</v>
-      </c>
-      <c r="R40" t="s">
-        <v>274</v>
-      </c>
-      <c r="S40" t="s">
-        <v>263</v>
-      </c>
-      <c r="T40" t="s">
-        <v>257</v>
-      </c>
-      <c r="U40" t="s">
-        <v>274</v>
-      </c>
-      <c r="V40" t="s">
-        <v>331</v>
-      </c>
-      <c r="W40" t="s">
-        <v>274</v>
-      </c>
-      <c r="X40" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>464</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" t="s">
-        <v>467</v>
-      </c>
-      <c r="C41" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41">
-        <v>2019</v>
-      </c>
-      <c r="E41" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41">
-        <v>118</v>
-      </c>
-      <c r="H41" t="s">
-        <v>274</v>
-      </c>
-      <c r="I41" t="s">
-        <v>471</v>
-      </c>
-      <c r="J41" t="s">
-        <v>286</v>
-      </c>
-      <c r="K41" t="s">
-        <v>263</v>
-      </c>
-      <c r="L41" t="s">
-        <v>277</v>
-      </c>
-      <c r="M41" t="s">
-        <v>272</v>
-      </c>
-      <c r="N41" t="s">
-        <v>279</v>
-      </c>
-      <c r="O41" t="s">
-        <v>468</v>
-      </c>
-      <c r="P41" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>469</v>
-      </c>
-      <c r="R41" t="s">
-        <v>470</v>
-      </c>
-      <c r="S41" t="s">
-        <v>263</v>
-      </c>
-      <c r="T41" t="s">
-        <v>257</v>
-      </c>
-      <c r="U41" t="s">
-        <v>274</v>
-      </c>
-      <c r="V41" t="s">
-        <v>331</v>
-      </c>
-      <c r="W41" t="s">
-        <v>378</v>
-      </c>
-      <c r="X41" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG41" t="s">
+      <c r="AH36" t="s">
         <v>274</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="Y1:Y36" xr:uid="{295041FB-7A4C-42BA-AF3C-EAD97E4C5808}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>